--- a/rekentool entry sifi strategie.xlsx
+++ b/rekentool entry sifi strategie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wiegersprocess-my.sharepoint.com/personal/engineer_w-p-i_com/Documents/Documents/GitHub/Soft_Lure_Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F31ED96A-D290-4108-B5D0-7E6B6272A2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{F31ED96A-D290-4108-B5D0-7E6B6272A2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98FF4060-7B04-48DE-8B78-AD4280E8E223}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D3A2FDAD-2F55-45A5-84A1-CCD354502828}"/>
+    <workbookView minimized="1" xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{D3A2FDAD-2F55-45A5-84A1-CCD354502828}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -73,7 +84,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -89,9 +100,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -129,7 +140,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -235,7 +246,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -377,7 +388,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -388,15 +399,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,21 +415,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>117.72</v>
+        <v>105</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
         <f>A2/(B2*1.5)</f>
-        <v>15.696</v>
+        <v>8.75</v>
       </c>
     </row>
   </sheetData>
